--- a/bases/UPDATE/SCN/Produccion bruta.xlsx
+++ b/bases/UPDATE/SCN/Produccion bruta.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="5978"/>
   </bookViews>
   <sheets>
     <sheet name="Produccion bruta" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Produccion_bruta" localSheetId="0">'Produccion bruta'!$A$1:$W$28</definedName>
+    <definedName name="Produccion_bruta" localSheetId="0">'Produccion bruta'!$A$1:$W$29</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,7 +23,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\rcant\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\Produccion bruta.IQY" name="Produccion bruta" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\Produccion bruta.IQY" name="Produccion bruta" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="https://www.inegi.org.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=2003&amp;aamax=9999&amp;cveser=,499978,499979,499980,499981,499982,499983,499984,499985,499986,499987,499988,499989,499990,499991,499992,499993,499994,499995,499996,499997,499998,499999,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -144,7 +144,7 @@
   </si>
   <si>
     <r>
-      <t>2020</t>
+      <t>2021</t>
     </r>
     <r>
       <rPr>
@@ -189,7 +189,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> A partir de 2020</t>
+      <t xml:space="preserve"> A partir de 2021</t>
     </r>
   </si>
   <si>
@@ -208,7 +208,7 @@
     </r>
   </si>
   <si>
-    <t>Fecha de consulta: 01/12/2021 9:52:49</t>
+    <t>Fecha de consulta: 03/01/2023 19:25:56</t>
   </si>
 </sst>
 </file>
@@ -1054,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2374,16 +2374,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="4">
-        <v>51876459.542000003</v>
+        <v>51863734.608000003</v>
       </c>
       <c r="C20" s="4">
-        <v>40894326.824000001</v>
+        <v>40881601.890000001</v>
       </c>
       <c r="D20" s="4">
-        <v>35725128.770000003</v>
+        <v>35712558.193000004</v>
       </c>
       <c r="E20" s="4">
-        <v>2072911.652</v>
+        <v>2072757.2949999999</v>
       </c>
       <c r="F20" s="4">
         <v>3096286.4019999998</v>
@@ -2407,25 +2407,25 @@
         <v>769940.76300000004</v>
       </c>
       <c r="M20" s="4">
-        <v>51876459.542000003</v>
+        <v>51863734.608000003</v>
       </c>
       <c r="N20" s="4">
-        <v>17870732.77</v>
+        <v>17865568.978</v>
       </c>
       <c r="O20" s="4">
-        <v>18651433.175999999</v>
+        <v>18651660.208000001</v>
       </c>
       <c r="P20" s="4">
-        <v>17268483.627999999</v>
+        <v>17268710.66</v>
       </c>
       <c r="Q20" s="4">
         <v>1382949.548</v>
       </c>
       <c r="R20" s="4">
-        <v>5037739.0729999999</v>
+        <v>5037785.3720000004</v>
       </c>
       <c r="S20" s="4">
-        <v>135273.02499999999</v>
+        <v>134980.58600000001</v>
       </c>
       <c r="T20" s="4">
         <v>9490148.5270000007</v>
@@ -2437,110 +2437,154 @@
         <v>610128.1</v>
       </c>
       <c r="W20" s="4">
-        <v>691132.97100000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>683590.93700000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A21" s="4">
+        <v>2020</v>
       </c>
       <c r="B21" s="4">
-        <v>48658250.441</v>
+        <v>48742273.108999997</v>
       </c>
       <c r="C21" s="4">
-        <v>38412868.978</v>
+        <v>38496757.361000001</v>
       </c>
       <c r="D21" s="4">
-        <v>33074277.574000001</v>
+        <v>33163323.802000001</v>
       </c>
       <c r="E21" s="4">
-        <v>2122395.1850000001</v>
+        <v>2122563.7439999999</v>
       </c>
       <c r="F21" s="4">
-        <v>3216196.219</v>
+        <v>3210869.8149999999</v>
       </c>
       <c r="G21" s="4">
-        <v>1473348.8189999999</v>
+        <v>1471812.9210000001</v>
       </c>
       <c r="H21" s="4">
-        <v>1553198.1440000001</v>
+        <v>1551745.1229999999</v>
       </c>
       <c r="I21" s="4">
-        <v>79849.324999999997</v>
+        <v>79932.202000000005</v>
       </c>
       <c r="J21" s="4">
-        <v>8772032.6439999994</v>
+        <v>8773702.8269999996</v>
       </c>
       <c r="K21" s="4">
         <v>8170429.0760000004</v>
       </c>
       <c r="L21" s="4">
-        <v>601603.56799999997</v>
+        <v>603273.75100000005</v>
       </c>
       <c r="M21" s="4">
-        <v>48658250.441</v>
+        <v>48742273.108999997</v>
       </c>
       <c r="N21" s="4">
-        <v>16528839.957</v>
+        <v>16538192.823999999</v>
       </c>
       <c r="O21" s="4">
-        <v>17674948.293000001</v>
+        <v>17706810.056000002</v>
       </c>
       <c r="P21" s="4">
-        <v>16225913.312000001</v>
+        <v>16287392.697000001</v>
       </c>
       <c r="Q21" s="4">
-        <v>1449034.9809999999</v>
+        <v>1419417.3589999999</v>
       </c>
       <c r="R21" s="4">
-        <v>4420981.1739999996</v>
+        <v>4426998.2230000002</v>
       </c>
       <c r="S21" s="4">
-        <v>54679.029000000002</v>
+        <v>-29228.338</v>
       </c>
       <c r="T21" s="4">
-        <v>9250233.2100000009</v>
+        <v>9253304.7670000009</v>
       </c>
       <c r="U21" s="4">
-        <v>8894424.977</v>
+        <v>8897892.1760000009</v>
       </c>
       <c r="V21" s="4">
-        <v>355808.23300000001</v>
+        <v>355412.59100000001</v>
       </c>
       <c r="W21" s="4">
-        <v>728568.77800000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
+        <v>846195.57700000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="4">
+        <v>55823864.424999997</v>
+      </c>
+      <c r="C22" s="4">
+        <v>43191564.074000001</v>
+      </c>
+      <c r="D22" s="4">
+        <v>37652951.568999998</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2198366.59</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3340245.915</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1578068.5330000001</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1660672.4820000001</v>
+      </c>
+      <c r="I22" s="4">
+        <v>82603.948999999993</v>
+      </c>
+      <c r="J22" s="4">
+        <v>11054231.818</v>
+      </c>
+      <c r="K22" s="4">
+        <v>10268842.73</v>
+      </c>
+      <c r="L22" s="4">
+        <v>785389.08799999999</v>
+      </c>
+      <c r="M22" s="4">
+        <v>55823864.424999997</v>
+      </c>
+      <c r="N22" s="4">
+        <v>18966124.489999998</v>
+      </c>
+      <c r="O22" s="4">
+        <v>19891152.171999998</v>
+      </c>
+      <c r="P22" s="4">
+        <v>18424109.050999999</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>1467043.121</v>
+      </c>
+      <c r="R22" s="4">
+        <v>5212083.5</v>
+      </c>
+      <c r="S22" s="4">
+        <v>138114.42600000001</v>
+      </c>
+      <c r="T22" s="4">
+        <v>10605724.092</v>
+      </c>
+      <c r="U22" s="4">
+        <v>10054294.169</v>
+      </c>
+      <c r="V22" s="4">
+        <v>551429.92299999995</v>
+      </c>
+      <c r="W22" s="4">
+        <v>1010665.745</v>
+      </c>
     </row>
     <row r="23" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2567,7 +2611,7 @@
     </row>
     <row r="24" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2594,7 +2638,7 @@
     </row>
     <row r="25" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2619,27 +2663,54 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="6" t="s">
+    <row r="26" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A29" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A22:W22"/>
     <mergeCell ref="A23:W23"/>
     <mergeCell ref="A24:W24"/>
     <mergeCell ref="A25:W25"/>
+    <mergeCell ref="A26:W26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
